--- a/source/PART 01/CHAPTER 02/테이블-키.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-키.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF358199-24A7-42E5-A736-BB9C92308241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15600" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
     <sheet name="sample2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -78,9 +79,6 @@
     <t>오서윤</t>
   </si>
   <si>
-    <t>컬러레이저복사기 XI-3200</t>
-  </si>
-  <si>
     <t>N-0706</t>
   </si>
   <si>
@@ -214,6 +212,10 @@
   </si>
   <si>
     <t>삼양트레이드 ㈜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러레이저복사기 XI-3200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,8 +224,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -495,27 +497,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -530,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -572,10 +571,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +586,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,458 +907,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>42736</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="str">
+        <f>B2 &amp; D2</f>
+        <v>S&amp;C무역 ㈜42736</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1176000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="J2" s="24">
+        <v>2998800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5">
-        <v>1176000</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42736</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E15" si="0">B3 &amp; D3</f>
+        <v>드림씨푸드 ㈜42736</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <v>17800</v>
+      </c>
+      <c r="H3" s="3">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="24">
+        <v>160200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42736</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>자이언트무역 ㈜42736</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3500</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42737</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>진왕통상 ㈜42737</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4">
+        <v>79800</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42737</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>삼양트레이드 ㈜42737</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>79500</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42740</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>자이언트무역 ㈜42740</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4">
+        <v>127800</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>511200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42740</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>동남무역 ㈜42740</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4">
+        <v>597900</v>
+      </c>
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="I2" s="25">
-        <v>2998800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="I8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1704015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42740</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>한남상사 ㈜42740</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4">
+        <v>16800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42740</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금화트레이드 ㈜42740</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4">
+        <v>161900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="24">
+        <v>1384245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D11" s="2">
+        <v>42740</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>칠성무역 ㈜42740</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4">
+        <v>96900</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>581400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42740</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>뉴럴네트워크 ㈜42740</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42741</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>신성백화점 ㈜42741</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
-        <v>42736</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5">
-        <v>17800</v>
-      </c>
-      <c r="G3" s="4">
-        <v>9</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="G13" s="4">
+        <v>20700</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="21">
         <v>0</v>
       </c>
-      <c r="I3" s="25">
-        <v>160200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42736</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3500</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="J13" s="24">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42741</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>사선무역 ㈜42741</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8</v>
+      </c>
+      <c r="I14" s="21">
         <v>0</v>
       </c>
-      <c r="I4" s="25">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42737</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5">
-        <v>79800</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="J14" s="24">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42741</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>네트워크통상 ㈜42741</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="4">
+        <v>48400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>484000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.5" customHeight="1">
+      <c r="A17" t="b">
+        <f>(SUMPRODUCT(1/COUNTIF(A2:A15,A2:A15))=COUNTA(A2:A15))</f>
         <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>79800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42737</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5">
-        <v>79500</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>159000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42740</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5">
-        <v>127800</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>511200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42740</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5">
-        <v>597900</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="I8" s="25">
-        <v>1704015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42740</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5">
-        <v>16800</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3">
-        <v>42740</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5">
-        <v>161900</v>
-      </c>
-      <c r="G10" s="4">
-        <v>9</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="I10" s="25">
-        <v>1384245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
-        <v>42740</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="5">
-        <v>96900</v>
-      </c>
-      <c r="G11" s="4">
-        <v>6</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25">
-        <v>581400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42740</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5400</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42741</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="5">
-        <v>20700</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
-        <v>41400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3">
-        <v>42741</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3200</v>
-      </c>
-      <c r="G14" s="4">
-        <v>8</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>42741</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="5">
-        <v>48400</v>
-      </c>
-      <c r="G15" s="4">
-        <v>10</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="25">
-        <v>484000</v>
       </c>
     </row>
   </sheetData>
@@ -1371,132 +1434,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="5" spans="2:7" ht="21" thickBot="1">
-      <c r="B5" s="26" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1"/>
+    <row r="5" spans="2:7" ht="21.5" thickBot="1">
+      <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="21" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="19" t="str">
+        <f>VLOOKUP(D7, sample1!A2:F15, 5, FALSE)</f>
+        <v>S&amp;C무역 ㈜42736</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1"/>
+    <row r="11" spans="2:7" ht="21.5" thickBot="1">
+      <c r="B11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="11" spans="2:7" ht="21" thickBot="1">
-      <c r="B11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>42737</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="19" t="str">
+        <f t="array" ref="F14">INDEX(sample1!F2:F15, MATCH(1, (sample1!B2:B15=C14)*(sample1!D2:D15=D14), 0))</f>
+        <v>잉크젯복합기 AP-3200</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="6:6" ht="20.149999999999999" customHeight="1">
+      <c r="F17" t="e">
+        <f>VLOOKUP(C14 &amp; D14, sample1:E2:F15, 2, FALSE)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/source/PART 01/CHAPTER 02/테이블-키.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-키.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF358199-24A7-42E5-A736-BB9C92308241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF8370-9FAE-4F78-A33A-5D1FF4CADF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1568,9 +1568,9 @@
       <c r="G15" s="13"/>
     </row>
     <row r="17" spans="6:6" ht="20.149999999999999" customHeight="1">
-      <c r="F17" t="e">
-        <f>VLOOKUP(C14 &amp; D14, sample1:E2:F15, 2, FALSE)</f>
-        <v>#NAME?</v>
+      <c r="F17" t="str">
+        <f>VLOOKUP(C14 &amp; D14, sample1!E2:F15, 2, FALSE)</f>
+        <v>잉크젯복합기 AP-3200</v>
       </c>
     </row>
   </sheetData>
